--- a/DataSetsSelection.xlsx
+++ b/DataSetsSelection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabinoroselli/PycharmProjects/Decision_Tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1586F1-7973-994D-88C4-A84915FFDE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF83C474-C276-1247-83A6-AF7A6FBED676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33060" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{1EAD7E15-DE4E-0847-90D3-7614627CB1D0}"/>
+    <workbookView xWindow="33060" yWindow="-21100" windowWidth="38400" windowHeight="19560" xr2:uid="{1EAD7E15-DE4E-0847-90D3-7614627CB1D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -714,15 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,7 +1052,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A50" sqref="A50:F50"/>
     </sheetView>
   </sheetViews>
@@ -1860,423 +1852,423 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="A47" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="1">
         <v>1221</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47">
         <v>191.56</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47">
         <v>90.41</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47">
         <v>0.54</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47">
         <v>45312</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="1">
+        <v>126.5</v>
+      </c>
+      <c r="C48">
+        <v>30.34</v>
+      </c>
+      <c r="D48">
+        <v>87.4</v>
+      </c>
+      <c r="E48">
+        <v>0.84</v>
+      </c>
+      <c r="F48">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="1">
+        <v>116.6</v>
+      </c>
+      <c r="C49">
+        <v>19.55</v>
+      </c>
+      <c r="D49">
+        <v>96.66</v>
+      </c>
+      <c r="E49">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F49">
+        <v>11055</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="C50">
+        <v>55.79</v>
+      </c>
+      <c r="D50">
+        <v>53.97</v>
+      </c>
+      <c r="E50">
+        <v>3.37</v>
+      </c>
+      <c r="F50">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="13">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="C51" s="10">
+        <v>14.88</v>
+      </c>
+      <c r="D51" s="10">
+        <v>88.64</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="F51" s="10">
+        <v>20634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="C52" s="2">
+        <v>15.49</v>
+      </c>
+      <c r="D52" s="2">
+        <v>64.05</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="F52" s="2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="C53" s="2">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="D53" s="2">
+        <v>89.37</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="F53" s="2">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="C54" s="2">
+        <v>29</v>
+      </c>
+      <c r="D54" s="2">
+        <v>54.16</v>
+      </c>
+      <c r="E54" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="C55">
+        <v>9.15</v>
+      </c>
+      <c r="D55">
+        <v>94.64</v>
+      </c>
+      <c r="E55">
+        <v>0.35</v>
+      </c>
+      <c r="F55">
+        <v>15545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="C56" s="2">
+        <v>14.14</v>
+      </c>
+      <c r="D56" s="2">
+        <v>53.91</v>
+      </c>
+      <c r="E56" s="2">
+        <v>11.63</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="D57" s="2">
+        <v>87.3</v>
+      </c>
+      <c r="E57" s="2">
+        <v>11.21</v>
+      </c>
+      <c r="F57" s="2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="1">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>4.24</v>
+      </c>
+      <c r="D58">
+        <v>94.73</v>
+      </c>
+      <c r="E58">
+        <v>0.82</v>
+      </c>
+      <c r="F58">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B59" s="1">
         <v>17</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C59">
         <v>1.63</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D59">
         <v>85.92</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E59">
         <v>0.27</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F59">
         <v>32561</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="14">
-        <v>5</v>
-      </c>
-      <c r="C49" s="13">
-        <v>1.89</v>
-      </c>
-      <c r="D49" s="13">
-        <v>82.11</v>
-      </c>
-      <c r="E49" s="13">
-        <v>0.36</v>
-      </c>
-      <c r="F49" s="13">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="15">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="C50" s="10">
-        <v>14.88</v>
-      </c>
-      <c r="D50" s="10">
-        <v>88.64</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="F50" s="10">
-        <v>20634</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="14">
-        <v>25.2</v>
-      </c>
-      <c r="C51" s="13">
-        <v>9.15</v>
-      </c>
-      <c r="D51" s="13">
-        <v>94.64</v>
-      </c>
-      <c r="E51" s="13">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="C60">
+        <v>3.1</v>
+      </c>
+      <c r="D60">
+        <v>98.85</v>
+      </c>
+      <c r="E60">
+        <v>0.39</v>
+      </c>
+      <c r="F60">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5.62</v>
+      </c>
+      <c r="D61" s="2">
+        <v>75.44</v>
+      </c>
+      <c r="E61" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F61" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="C62">
+        <v>0.32</v>
+      </c>
+      <c r="D62">
+        <v>99.9</v>
+      </c>
+      <c r="E62">
+        <v>0.33</v>
+      </c>
+      <c r="F62">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>98.82</v>
+      </c>
+      <c r="E63">
         <v>0.35</v>
       </c>
-      <c r="F51" s="13">
-        <v>15545</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="14">
-        <v>126.5</v>
-      </c>
-      <c r="C52" s="13">
-        <v>30.34</v>
-      </c>
-      <c r="D52" s="13">
-        <v>87.4</v>
-      </c>
-      <c r="E52" s="13">
-        <v>0.84</v>
-      </c>
-      <c r="F52" s="13">
-        <v>14980</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="15">
-        <v>7.1</v>
-      </c>
-      <c r="C53" s="10">
-        <v>5.45</v>
-      </c>
-      <c r="D53" s="10">
-        <v>98.57</v>
-      </c>
-      <c r="E53" s="10">
-        <v>0.18</v>
-      </c>
-      <c r="F53" s="10">
-        <v>11183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="14">
-        <v>116.6</v>
-      </c>
-      <c r="C54" s="13">
-        <v>19.55</v>
-      </c>
-      <c r="D54" s="13">
-        <v>96.66</v>
-      </c>
-      <c r="E54" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F54" s="13">
-        <v>11055</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="C55" s="13">
-        <v>3.46</v>
-      </c>
-      <c r="D55" s="13">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="E55" s="13">
-        <v>0.41</v>
-      </c>
-      <c r="F55" s="13">
-        <v>10885</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="15">
-        <v>3</v>
-      </c>
-      <c r="C56" s="10">
-        <v>1.94</v>
-      </c>
-      <c r="D56" s="10">
-        <v>99.41</v>
-      </c>
-      <c r="E56" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="F56" s="10">
-        <v>9466</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="15">
-        <v>2.6</v>
-      </c>
-      <c r="C57" s="10">
-        <v>3.37</v>
-      </c>
-      <c r="D57" s="10">
-        <v>100</v>
-      </c>
-      <c r="E57" s="10">
-        <v>0</v>
-      </c>
-      <c r="F57" s="10">
-        <v>8124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="15">
-        <v>5.2</v>
-      </c>
-      <c r="C58" s="10">
-        <v>7.33</v>
-      </c>
-      <c r="D58" s="10">
-        <v>93.88</v>
-      </c>
-      <c r="E58" s="10">
-        <v>0.41</v>
-      </c>
-      <c r="F58" s="10">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="3">
-        <v>26.8</v>
-      </c>
-      <c r="C59" s="2">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="D59" s="2">
-        <v>89.37</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="F59" s="2">
-        <v>5300</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="14">
-        <v>20</v>
-      </c>
-      <c r="C60" s="13">
-        <v>4.24</v>
-      </c>
-      <c r="D60" s="13">
-        <v>94.73</v>
-      </c>
-      <c r="E60" s="13">
-        <v>0.82</v>
-      </c>
-      <c r="F60" s="13">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="14">
-        <v>7.9</v>
-      </c>
-      <c r="C61" s="13">
-        <v>3</v>
-      </c>
-      <c r="D61" s="13">
-        <v>98.82</v>
-      </c>
-      <c r="E61" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="F61" s="13">
+      <c r="F63">
         <v>3772</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="14">
-        <v>10.6</v>
-      </c>
-      <c r="C62" s="13">
-        <v>3.1</v>
-      </c>
-      <c r="D62" s="13">
-        <v>98.85</v>
-      </c>
-      <c r="E62" s="13">
-        <v>0.39</v>
-      </c>
-      <c r="F62" s="13">
-        <v>3772</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1.26</v>
-      </c>
-      <c r="D63" s="2">
-        <v>99.51</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="F63" s="2">
-        <v>3196</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B64" s="3">
-        <v>25.4</v>
+        <v>7.6</v>
       </c>
       <c r="C64" s="2">
-        <v>29</v>
+        <v>1.26</v>
       </c>
       <c r="D64" s="2">
-        <v>54.16</v>
+        <v>99.51</v>
       </c>
       <c r="E64" s="2">
-        <v>5.8</v>
+        <v>0.33</v>
       </c>
       <c r="F64" s="2">
-        <v>1600</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="14">
-        <v>70.5</v>
-      </c>
-      <c r="C65" s="13">
-        <v>55.79</v>
-      </c>
-      <c r="D65" s="13">
-        <v>53.97</v>
-      </c>
-      <c r="E65" s="13">
-        <v>3.37</v>
-      </c>
-      <c r="F65" s="13">
-        <v>1600</v>
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D65" s="2">
+        <v>98.83</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="F65" s="2">
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="C66" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="D66" s="2">
-        <v>99.93</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F66" s="2">
-        <v>1372</v>
+      <c r="A66" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="C66" s="10">
+        <v>5.45</v>
+      </c>
+      <c r="D66" s="10">
+        <v>98.57</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="F66" s="10">
+        <v>11183</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B67" s="3">
-        <v>21.5</v>
+        <v>6.2</v>
       </c>
       <c r="C67" s="2">
-        <v>14.14</v>
+        <v>0.63</v>
       </c>
       <c r="D67" s="2">
-        <v>53.91</v>
+        <v>93.77</v>
       </c>
       <c r="E67" s="2">
-        <v>11.63</v>
+        <v>7.15</v>
       </c>
       <c r="F67" s="2">
-        <v>1124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2300,303 +2292,303 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="14">
-        <v>9.9</v>
-      </c>
-      <c r="C69" s="13">
-        <v>0.32</v>
-      </c>
-      <c r="D69" s="13">
-        <v>99.9</v>
-      </c>
-      <c r="E69" s="13">
-        <v>0.33</v>
-      </c>
-      <c r="F69" s="13">
-        <v>973</v>
+      <c r="A69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D69" s="2">
+        <v>91.75</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="F69" s="2">
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="D70" s="2">
-        <v>78.14</v>
-      </c>
-      <c r="E70" s="2">
-        <v>1.69</v>
-      </c>
-      <c r="F70" s="2">
-        <v>748</v>
+      <c r="A70" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="C70" s="10">
+        <v>7.33</v>
+      </c>
+      <c r="D70" s="10">
+        <v>93.88</v>
+      </c>
+      <c r="E70" s="10">
+        <v>0.41</v>
+      </c>
+      <c r="F70" s="10">
+        <v>7129</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3">
-        <v>46.6</v>
+        <v>5.2</v>
       </c>
       <c r="C71" s="2">
-        <v>15.49</v>
+        <v>5.39</v>
       </c>
       <c r="D71" s="2">
-        <v>64.05</v>
+        <v>61.65</v>
       </c>
       <c r="E71" s="2">
-        <v>3.65</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="F71" s="2">
-        <v>708</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="C72" s="2">
-        <v>11.33</v>
-      </c>
-      <c r="D72" s="2">
-        <v>85</v>
-      </c>
-      <c r="E72" s="2">
-        <v>2.62</v>
-      </c>
-      <c r="F72" s="2">
-        <v>690</v>
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="1">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>1.89</v>
+      </c>
+      <c r="D72">
+        <v>82.11</v>
+      </c>
+      <c r="E72">
+        <v>0.36</v>
+      </c>
+      <c r="F72">
+        <v>30000</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B73" s="3">
-        <v>21.2</v>
+        <v>4.8</v>
       </c>
       <c r="C73" s="2">
-        <v>36.020000000000003</v>
+        <v>11.33</v>
       </c>
       <c r="D73" s="2">
-        <v>87.3</v>
+        <v>85</v>
       </c>
       <c r="E73" s="2">
-        <v>11.21</v>
+        <v>2.62</v>
       </c>
       <c r="F73" s="2">
-        <v>569</v>
+        <v>690</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B74" s="3">
-        <v>7.3</v>
+        <v>4.3</v>
       </c>
       <c r="C74" s="2">
-        <v>1.25</v>
+        <v>5.31</v>
       </c>
       <c r="D74" s="2">
-        <v>98.83</v>
+        <v>83.33</v>
       </c>
       <c r="E74" s="2">
-        <v>0.77</v>
+        <v>5.56</v>
       </c>
       <c r="F74" s="2">
-        <v>512</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B75" s="3">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="C75" s="2">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="D75" s="2">
-        <v>80.98</v>
+        <v>97.5</v>
       </c>
       <c r="E75" s="2">
-        <v>5.67</v>
+        <v>2.87</v>
       </c>
       <c r="F75" s="2">
-        <v>368</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="B76" s="3">
-        <v>10.3</v>
+        <v>3.4</v>
       </c>
       <c r="C76" s="2">
-        <v>5.62</v>
+        <v>1.35</v>
       </c>
       <c r="D76" s="2">
-        <v>75.44</v>
+        <v>78.14</v>
       </c>
       <c r="E76" s="2">
-        <v>7.5</v>
+        <v>1.69</v>
       </c>
       <c r="F76" s="2">
-        <v>340</v>
+        <v>748</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B77" s="3">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="C77" s="2">
-        <v>5.39</v>
+        <v>1.83</v>
       </c>
       <c r="D77" s="2">
-        <v>61.65</v>
+        <v>80.98</v>
       </c>
       <c r="E77" s="2">
-        <v>4.8899999999999997</v>
+        <v>5.67</v>
       </c>
       <c r="F77" s="2">
-        <v>274</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B78" s="3">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="C78" s="2">
-        <v>2.0699999999999998</v>
+        <v>2.57</v>
       </c>
       <c r="D78" s="2">
-        <v>91.75</v>
+        <v>74.5</v>
       </c>
       <c r="E78" s="2">
-        <v>2.78</v>
+        <v>4.97</v>
       </c>
       <c r="F78" s="2">
-        <v>251</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C79" s="2">
-        <v>3.79</v>
-      </c>
-      <c r="D79" s="2">
-        <v>87.55</v>
-      </c>
-      <c r="E79" s="2">
-        <v>2.98</v>
-      </c>
-      <c r="F79" s="2">
-        <v>209</v>
+      <c r="A79" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="13">
+        <v>3</v>
+      </c>
+      <c r="C79" s="10">
+        <v>1.94</v>
+      </c>
+      <c r="D79" s="10">
+        <v>99.41</v>
+      </c>
+      <c r="E79" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="F79" s="10">
+        <v>9466</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="3">
-        <v>4</v>
-      </c>
-      <c r="C80" s="2">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C80">
+        <v>3.46</v>
+      </c>
+      <c r="D80">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="E80">
+        <v>0.41</v>
+      </c>
+      <c r="F80">
+        <v>10885</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="C81" s="10">
+        <v>3.37</v>
+      </c>
+      <c r="D81" s="10">
+        <v>100</v>
+      </c>
+      <c r="E81" s="10">
         <v>0</v>
       </c>
-      <c r="D80" s="2">
-        <v>97.5</v>
-      </c>
-      <c r="E80" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="F80" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="C81" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="D81" s="2">
-        <v>93.77</v>
-      </c>
-      <c r="E81" s="2">
-        <v>7.15</v>
-      </c>
-      <c r="F81" s="2">
-        <v>128</v>
+      <c r="F81" s="10">
+        <v>8124</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B82" s="3">
-        <v>4.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C82" s="2">
-        <v>5.31</v>
+        <v>3.79</v>
       </c>
       <c r="D82" s="2">
-        <v>83.33</v>
+        <v>87.55</v>
       </c>
       <c r="E82" s="2">
-        <v>5.56</v>
+        <v>2.98</v>
       </c>
       <c r="F82" s="2">
-        <v>120</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B83" s="3">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="C83" s="2">
-        <v>2.57</v>
+        <v>0.32</v>
       </c>
       <c r="D83" s="2">
-        <v>74.5</v>
+        <v>99.93</v>
       </c>
       <c r="E83" s="2">
-        <v>4.97</v>
+        <v>0.15</v>
       </c>
       <c r="F83" s="2">
-        <v>100</v>
+        <v>1372</v>
       </c>
     </row>
   </sheetData>
@@ -2607,7 +2599,7 @@
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:F83">
-      <sortCondition descending="1" ref="F1:F83"/>
+      <sortCondition descending="1" ref="B1:B83"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E83">
@@ -2673,7 +2665,7 @@
         <v>100.13</v>
       </c>
       <c r="E2" s="5">
-        <f>C2-D2</f>
+        <f t="shared" ref="E2:E33" si="0">C2-D2</f>
         <v>1.0000000000005116E-2</v>
       </c>
       <c r="F2" s="5"/>
@@ -2695,7 +2687,7 @@
         <v>21.01</v>
       </c>
       <c r="E3" s="12">
-        <f>C3-D3</f>
+        <f t="shared" si="0"/>
         <v>10.27</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -2719,7 +2711,7 @@
         <v>58.48</v>
       </c>
       <c r="E4" s="12">
-        <f>C4-D4</f>
+        <f t="shared" si="0"/>
         <v>22.390000000000008</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -2743,7 +2735,7 @@
         <v>88.87</v>
       </c>
       <c r="E5" s="5">
-        <f>C5-D5</f>
+        <f t="shared" si="0"/>
         <v>1.8999999999999915</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -2767,7 +2759,7 @@
         <v>32.479999999999997</v>
       </c>
       <c r="E6" s="5">
-        <f>C6-D6</f>
+        <f t="shared" si="0"/>
         <v>10.780000000000001</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -2791,7 +2783,7 @@
         <v>39.83</v>
       </c>
       <c r="E7" s="5">
-        <f>C7-D7</f>
+        <f t="shared" si="0"/>
         <v>2.980000000000004</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -2815,7 +2807,7 @@
         <v>86.67</v>
       </c>
       <c r="E8" s="5">
-        <f>C8-D8</f>
+        <f t="shared" si="0"/>
         <v>3.8499999999999943</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -2839,7 +2831,7 @@
         <v>57.52</v>
       </c>
       <c r="E9" s="5">
-        <f>C9-D9</f>
+        <f t="shared" si="0"/>
         <v>9.7999999999999901</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -2863,7 +2855,7 @@
         <v>49.23</v>
       </c>
       <c r="E10" s="5">
-        <f>C10-D10</f>
+        <f t="shared" si="0"/>
         <v>9.990000000000002</v>
       </c>
       <c r="F10" s="5"/>
@@ -2885,7 +2877,7 @@
         <v>56.08</v>
       </c>
       <c r="E11" s="5">
-        <f>C11-D11</f>
+        <f t="shared" si="0"/>
         <v>3.480000000000004</v>
       </c>
       <c r="F11" s="5"/>
@@ -2907,7 +2899,7 @@
         <v>52.79</v>
       </c>
       <c r="E12" s="5">
-        <f>C12-D12</f>
+        <f t="shared" si="0"/>
         <v>26.979999999999997</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -2931,7 +2923,7 @@
         <v>81.94</v>
       </c>
       <c r="E13" s="5">
-        <f>C13-D13</f>
+        <f t="shared" si="0"/>
         <v>4.230000000000004</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -2955,7 +2947,7 @@
         <v>60.08</v>
       </c>
       <c r="E14" s="12">
-        <f>C14-D14</f>
+        <f t="shared" si="0"/>
         <v>0.92000000000000171</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -2979,7 +2971,7 @@
         <v>72.06</v>
       </c>
       <c r="E15" s="5">
-        <f>C15-D15</f>
+        <f t="shared" si="0"/>
         <v>0.32999999999999829</v>
       </c>
       <c r="F15" s="5"/>
@@ -3001,7 +2993,7 @@
         <v>67.45</v>
       </c>
       <c r="E16" s="5">
-        <f>C16-D16</f>
+        <f t="shared" si="0"/>
         <v>1.1199999999999903</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -3025,7 +3017,7 @@
         <v>48.59</v>
       </c>
       <c r="E17" s="5">
-        <f>C17-D17</f>
+        <f t="shared" si="0"/>
         <v>0.52999999999999403</v>
       </c>
       <c r="F17" s="5"/>
@@ -3047,7 +3039,7 @@
         <v>81.44</v>
       </c>
       <c r="E18" s="12">
-        <f>C18-D18</f>
+        <f t="shared" si="0"/>
         <v>2.9200000000000017</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -3071,7 +3063,7 @@
         <v>37.43</v>
       </c>
       <c r="E19" s="12">
-        <f>C19-D19</f>
+        <f t="shared" si="0"/>
         <v>17.43</v>
       </c>
       <c r="F19" s="12" t="s">
@@ -3095,7 +3087,7 @@
         <v>2.94</v>
       </c>
       <c r="E20" s="5">
-        <f>C20-D20</f>
+        <f t="shared" si="0"/>
         <v>-1.39</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -3119,7 +3111,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E21" s="5">
-        <f>C21-D21</f>
+        <f t="shared" si="0"/>
         <v>91.69</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -3143,7 +3135,7 @@
         <v>72.150000000000006</v>
       </c>
       <c r="E22" s="9">
-        <f>C22-D22</f>
+        <f t="shared" si="0"/>
         <v>10.239999999999995</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -3167,7 +3159,7 @@
         <v>24.73</v>
       </c>
       <c r="E23" s="9">
-        <f>C23-D23</f>
+        <f t="shared" si="0"/>
         <v>43.8</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -3191,7 +3183,7 @@
         <v>14.3</v>
       </c>
       <c r="E24" s="9">
-        <f>C24-D24</f>
+        <f t="shared" si="0"/>
         <v>60.870000000000005</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -3215,7 +3207,7 @@
         <v>71.13</v>
       </c>
       <c r="E25" s="5">
-        <f>C25-D25</f>
+        <f t="shared" si="0"/>
         <v>11.02000000000001</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -3239,7 +3231,7 @@
         <v>64.709999999999994</v>
       </c>
       <c r="E26" s="5">
-        <f>C26-D26</f>
+        <f t="shared" si="0"/>
         <v>2.8900000000000006</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -3263,7 +3255,7 @@
         <v>69.790000000000006</v>
       </c>
       <c r="E27" s="9">
-        <f>C27-D27</f>
+        <f t="shared" si="0"/>
         <v>19.289999999999992</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -3287,7 +3279,7 @@
         <v>100.08</v>
       </c>
       <c r="E28" s="5">
-        <f>C28-D28</f>
+        <f t="shared" si="0"/>
         <v>-0.23999999999999488</v>
       </c>
       <c r="F28" s="5"/>
@@ -3309,7 +3301,7 @@
         <v>6.93</v>
       </c>
       <c r="E29" s="9">
-        <f>C29-D29</f>
+        <f t="shared" si="0"/>
         <v>17.57</v>
       </c>
       <c r="F29" s="9" t="s">
@@ -3333,7 +3325,7 @@
         <v>8.35</v>
       </c>
       <c r="E30" s="5">
-        <f>C30-D30</f>
+        <f t="shared" si="0"/>
         <v>0.41000000000000014</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -3357,7 +3349,7 @@
         <v>19.68</v>
       </c>
       <c r="E31" s="9">
-        <f>C31-D31</f>
+        <f t="shared" si="0"/>
         <v>17.07</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3381,7 +3373,7 @@
         <v>92.16</v>
       </c>
       <c r="E32" s="5">
-        <f>C32-D32</f>
+        <f t="shared" si="0"/>
         <v>5.0700000000000074</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -3405,7 +3397,7 @@
         <v>49.41</v>
       </c>
       <c r="E33" s="5">
-        <f>C33-D33</f>
+        <f t="shared" si="0"/>
         <v>14.290000000000006</v>
       </c>
       <c r="F33" s="5"/>
@@ -3427,7 +3419,7 @@
         <v>41.08</v>
       </c>
       <c r="E34" s="5">
-        <f>C34-D34</f>
+        <f t="shared" ref="E34:E65" si="1">C34-D34</f>
         <v>10.969999999999999</v>
       </c>
       <c r="F34" s="5"/>
@@ -3449,7 +3441,7 @@
         <v>6.73</v>
       </c>
       <c r="E35" s="5">
-        <f>C35-D35</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -3473,7 +3465,7 @@
         <v>1.45</v>
       </c>
       <c r="E36" s="5">
-        <f>C36-D36</f>
+        <f t="shared" si="1"/>
         <v>23.51</v>
       </c>
       <c r="F36" s="5" t="s">
@@ -3497,7 +3489,7 @@
         <v>79.510000000000005</v>
       </c>
       <c r="E37" s="5">
-        <f>C37-D37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F37" s="5"/>
@@ -3519,7 +3511,7 @@
         <v>21.84</v>
       </c>
       <c r="E38" s="5">
-        <f>C38-D38</f>
+        <f t="shared" si="1"/>
         <v>27.13</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -3543,7 +3535,7 @@
         <v>15.68</v>
       </c>
       <c r="E39" s="9">
-        <f>C39-D39</f>
+        <f t="shared" si="1"/>
         <v>20.229999999999997</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -3567,7 +3559,7 @@
         <v>67.94</v>
       </c>
       <c r="E40" s="9">
-        <f>C40-D40</f>
+        <f t="shared" si="1"/>
         <v>12.950000000000003</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -3591,7 +3583,7 @@
         <v>84.46</v>
       </c>
       <c r="E41" s="5">
-        <f>C41-D41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F41" s="5"/>
@@ -3613,7 +3605,7 @@
         <v>99.98</v>
       </c>
       <c r="E42" s="5">
-        <f>C42-D42</f>
+        <f t="shared" si="1"/>
         <v>-0.54999999999999716</v>
       </c>
       <c r="F42" s="5"/>
@@ -3635,7 +3627,7 @@
         <v>100.27</v>
       </c>
       <c r="E43" s="5">
-        <f>C43-D43</f>
+        <f t="shared" si="1"/>
         <v>-0.85999999999999943</v>
       </c>
       <c r="F43" s="5"/>
@@ -3657,7 +3649,7 @@
         <v>99.92</v>
       </c>
       <c r="E44" s="5">
-        <f>C44-D44</f>
+        <f t="shared" si="1"/>
         <v>-7.9999999999998295E-2</v>
       </c>
       <c r="F44" s="5"/>
@@ -3679,7 +3671,7 @@
         <v>99.88</v>
       </c>
       <c r="E45" s="5">
-        <f>C45-D45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F45" s="5"/>
@@ -3701,7 +3693,7 @@
         <v>51.16</v>
       </c>
       <c r="E46" s="5">
-        <f>C46-D46</f>
+        <f t="shared" si="1"/>
         <v>43.69</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -3725,7 +3717,7 @@
         <v>89.71</v>
       </c>
       <c r="E47" s="5">
-        <f>C47-D47</f>
+        <f t="shared" si="1"/>
         <v>3.4200000000000017</v>
       </c>
       <c r="F47" s="5"/>
@@ -3747,7 +3739,7 @@
         <v>71.790000000000006</v>
       </c>
       <c r="E48" s="5">
-        <f>C48-D48</f>
+        <f t="shared" si="1"/>
         <v>-7.8400000000000034</v>
       </c>
       <c r="F48" s="5"/>
@@ -3769,7 +3761,7 @@
         <v>91.96</v>
       </c>
       <c r="E49" s="9">
-        <f>C49-D49</f>
+        <f t="shared" si="1"/>
         <v>-8.7599999999999909</v>
       </c>
       <c r="F49" s="9"/>
@@ -3791,7 +3783,7 @@
         <v>65.62</v>
       </c>
       <c r="E50" s="9">
-        <f>C50-D50</f>
+        <f t="shared" si="1"/>
         <v>10.75</v>
       </c>
       <c r="F50" s="9"/>
@@ -3813,7 +3805,7 @@
         <v>71.61</v>
       </c>
       <c r="E51" s="5">
-        <f>C51-D51</f>
+        <f t="shared" si="1"/>
         <v>-0.59000000000000341</v>
       </c>
       <c r="F51" s="5"/>
@@ -3835,7 +3827,7 @@
         <v>119.36</v>
       </c>
       <c r="E52" s="9">
-        <f>C52-D52</f>
+        <f t="shared" si="1"/>
         <v>40.510000000000005</v>
       </c>
       <c r="F52" s="9"/>
@@ -3857,7 +3849,7 @@
         <v>128.6</v>
       </c>
       <c r="E53" s="5">
-        <f>C53-D53</f>
+        <f t="shared" si="1"/>
         <v>-2.3499999999999943</v>
       </c>
       <c r="F53" s="5"/>
@@ -3879,7 +3871,7 @@
         <v>110.13</v>
       </c>
       <c r="E54" s="9">
-        <f>C54-D54</f>
+        <f t="shared" si="1"/>
         <v>-1.9799999999999898</v>
       </c>
       <c r="F54" s="9"/>
@@ -3888,26 +3880,26 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+      <c r="A55" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="4">
         <v>404.8</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="5">
         <v>53.76</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="5">
         <v>43.72</v>
       </c>
-      <c r="E55" s="17">
-        <f>C55-D55</f>
+      <c r="E55" s="5">
+        <f t="shared" si="1"/>
         <v>10.039999999999999</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55">
         <v>9.5</v>
       </c>
     </row>
@@ -3925,7 +3917,7 @@
         <v>43.24</v>
       </c>
       <c r="E56" s="5">
-        <f>C56-D56</f>
+        <f t="shared" si="1"/>
         <v>10.719999999999999</v>
       </c>
       <c r="F56" s="5" t="s">
@@ -3949,7 +3941,7 @@
         <v>48.75</v>
       </c>
       <c r="E57" s="9">
-        <f>C57-D57</f>
+        <f t="shared" si="1"/>
         <v>21.790000000000006</v>
       </c>
       <c r="F57" s="9"/>
@@ -3971,7 +3963,7 @@
         <v>55.43</v>
       </c>
       <c r="E58" s="5">
-        <f>C58-D58</f>
+        <f t="shared" si="1"/>
         <v>-3.9999999999999147E-2</v>
       </c>
       <c r="F58" s="5"/>
@@ -3993,7 +3985,7 @@
         <v>37.32</v>
       </c>
       <c r="E59" s="5">
-        <f>C59-D59</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F59" s="5"/>
@@ -4015,7 +4007,7 @@
         <v>38.299999999999997</v>
       </c>
       <c r="E60" s="5">
-        <f>C60-D60</f>
+        <f t="shared" si="1"/>
         <v>48.180000000000007</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -4039,7 +4031,7 @@
         <v>52.62</v>
       </c>
       <c r="E61" s="5">
-        <f>C61-D61</f>
+        <f t="shared" si="1"/>
         <v>46.140000000000008</v>
       </c>
       <c r="F61" s="5" t="s">
@@ -4063,7 +4055,7 @@
         <v>50.51</v>
       </c>
       <c r="E62" s="9">
-        <f>C62-D62</f>
+        <f t="shared" si="1"/>
         <v>16.170000000000009</v>
       </c>
       <c r="F62" s="9" t="s">
@@ -4087,7 +4079,7 @@
         <v>25.79</v>
       </c>
       <c r="E63" s="5">
-        <f>C63-D63</f>
+        <f t="shared" si="1"/>
         <v>5.0600000000000023</v>
       </c>
       <c r="F63" s="5" t="s">
@@ -4111,7 +4103,7 @@
         <v>100.11</v>
       </c>
       <c r="E64" s="5">
-        <f>C64-D64</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F64" s="5"/>
@@ -4133,7 +4125,7 @@
         <v>36.24</v>
       </c>
       <c r="E65" s="9">
-        <f>C65-D65</f>
+        <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
       <c r="F65" s="9"/>
@@ -4155,7 +4147,7 @@
         <v>49.98</v>
       </c>
       <c r="E66" s="5">
-        <f>C66-D66</f>
+        <f t="shared" ref="E66:E97" si="2">C66-D66</f>
         <v>0</v>
       </c>
       <c r="F66" s="5"/>
@@ -4177,7 +4169,7 @@
         <v>42.51</v>
       </c>
       <c r="E67" s="5">
-        <f>C67-D67</f>
+        <f t="shared" si="2"/>
         <v>-0.35000000000000142</v>
       </c>
       <c r="F67" s="5"/>
@@ -4199,7 +4191,7 @@
         <v>190.5</v>
       </c>
       <c r="E68" s="9">
-        <f>C68-D68</f>
+        <f t="shared" si="2"/>
         <v>-31.689999999999998</v>
       </c>
       <c r="F68" s="9"/>
@@ -4221,7 +4213,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="E69" s="5">
-        <f>C69-D69</f>
+        <f t="shared" si="2"/>
         <v>1.7300000000000004</v>
       </c>
       <c r="F69" s="5" t="s">
@@ -4245,7 +4237,7 @@
         <v>10.93</v>
       </c>
       <c r="E70" s="9">
-        <f>C70-D70</f>
+        <f t="shared" si="2"/>
         <v>48.56</v>
       </c>
       <c r="F70" s="9" t="s">
@@ -4269,7 +4261,7 @@
         <v>101.37</v>
       </c>
       <c r="E71" s="5">
-        <f>C71-D71</f>
+        <f t="shared" si="2"/>
         <v>-0.82999999999999829</v>
       </c>
       <c r="F71" s="5"/>
@@ -4291,7 +4283,7 @@
         <v>70.75</v>
       </c>
       <c r="E72" s="5">
-        <f>C72-D72</f>
+        <f t="shared" si="2"/>
         <v>-0.17000000000000171</v>
       </c>
       <c r="F72" s="5"/>
@@ -4313,7 +4305,7 @@
         <v>75.62</v>
       </c>
       <c r="E73" s="5">
-        <f>C73-D73</f>
+        <f t="shared" si="2"/>
         <v>-5.3299999999999983</v>
       </c>
       <c r="F73" s="5"/>
@@ -4335,7 +4327,7 @@
         <v>97.06</v>
       </c>
       <c r="E74" s="5">
-        <f>C74-D74</f>
+        <f t="shared" si="2"/>
         <v>-0.60000000000000853</v>
       </c>
       <c r="F74" s="5"/>
@@ -4357,7 +4349,7 @@
         <v>13.4</v>
       </c>
       <c r="E75" s="5">
-        <f>C75-D75</f>
+        <f t="shared" si="2"/>
         <v>0.88999999999999879</v>
       </c>
       <c r="F75" s="5"/>
@@ -4379,7 +4371,7 @@
         <v>36.619999999999997</v>
       </c>
       <c r="E76" s="5">
-        <f>C76-D76</f>
+        <f t="shared" si="2"/>
         <v>-2.9999999999994031E-2</v>
       </c>
       <c r="F76" s="5"/>
@@ -4401,7 +4393,7 @@
         <v>47.85</v>
       </c>
       <c r="E77" s="5">
-        <f>C77-D77</f>
+        <f t="shared" si="2"/>
         <v>-0.16000000000000369</v>
       </c>
       <c r="F77" s="5"/>
@@ -4423,7 +4415,7 @@
         <v>22.16</v>
       </c>
       <c r="E78" s="9">
-        <f>C78-D78</f>
+        <f t="shared" si="2"/>
         <v>17.029999999999998</v>
       </c>
       <c r="F78" s="9"/>
@@ -4445,7 +4437,7 @@
         <v>36.57</v>
       </c>
       <c r="E79" s="5">
-        <f>C79-D79</f>
+        <f t="shared" si="2"/>
         <v>8.39</v>
       </c>
       <c r="F79" s="5"/>
@@ -4467,7 +4459,7 @@
         <v>32.950000000000003</v>
       </c>
       <c r="E80" s="9">
-        <f>C80-D80</f>
+        <f t="shared" si="2"/>
         <v>17.849999999999994</v>
       </c>
       <c r="F80" s="9" t="s">
@@ -4491,7 +4483,7 @@
         <v>103.56</v>
       </c>
       <c r="E81" s="5">
-        <f>C81-D81</f>
+        <f t="shared" si="2"/>
         <v>2.8100000000000023</v>
       </c>
       <c r="F81" s="5"/>
@@ -4513,7 +4505,7 @@
         <v>84.55</v>
       </c>
       <c r="E82" s="5">
-        <f>C82-D82</f>
+        <f t="shared" si="2"/>
         <v>-1.5600000000000023</v>
       </c>
       <c r="F82" s="5"/>
@@ -4535,7 +4527,7 @@
         <v>95.86</v>
       </c>
       <c r="E83" s="9">
-        <f>C83-D83</f>
+        <f t="shared" si="2"/>
         <v>3.4000000000000057</v>
       </c>
       <c r="F83" s="9"/>
@@ -4557,7 +4549,7 @@
         <v>60.34</v>
       </c>
       <c r="E84" s="5">
-        <f>C84-D84</f>
+        <f t="shared" si="2"/>
         <v>1.5799999999999983</v>
       </c>
       <c r="F84" s="5"/>
@@ -4579,7 +4571,7 @@
         <v>92.79</v>
       </c>
       <c r="E85" s="5">
-        <f>C85-D85</f>
+        <f t="shared" si="2"/>
         <v>-1.5900000000000034</v>
       </c>
       <c r="F85" s="5"/>
@@ -4601,7 +4593,7 @@
         <v>85.47</v>
       </c>
       <c r="E86" s="5">
-        <f>C86-D86</f>
+        <f t="shared" si="2"/>
         <v>3.5600000000000023</v>
       </c>
       <c r="F86" s="5"/>
@@ -4623,7 +4615,7 @@
         <v>41.26</v>
       </c>
       <c r="E87" s="5">
-        <f>C87-D87</f>
+        <f t="shared" si="2"/>
         <v>8.4699999999999989</v>
       </c>
       <c r="F87" s="5"/>
@@ -4645,7 +4637,7 @@
         <v>40.97</v>
       </c>
       <c r="E88" s="5">
-        <f>C88-D88</f>
+        <f t="shared" si="2"/>
         <v>9.1499999999999986</v>
       </c>
       <c r="F88" s="5"/>
@@ -4667,7 +4659,7 @@
         <v>102.32</v>
       </c>
       <c r="E89" s="5">
-        <f>C89-D89</f>
+        <f t="shared" si="2"/>
         <v>3.0700000000000074</v>
       </c>
       <c r="F89" s="5"/>
@@ -4689,7 +4681,7 @@
         <v>100.69</v>
       </c>
       <c r="E90" s="5">
-        <f>C90-D90</f>
+        <f t="shared" si="2"/>
         <v>-2.0999999999999943</v>
       </c>
       <c r="F90" s="5"/>
@@ -4711,7 +4703,7 @@
         <v>78.88</v>
       </c>
       <c r="E91" s="5">
-        <f>C91-D91</f>
+        <f t="shared" si="2"/>
         <v>0.27000000000001023</v>
       </c>
       <c r="F91" s="5"/>
@@ -4733,7 +4725,7 @@
         <v>31.51</v>
       </c>
       <c r="E92" s="5">
-        <f>C92-D92</f>
+        <f t="shared" si="2"/>
         <v>9.129999999999999</v>
       </c>
       <c r="F92" s="5"/>
@@ -4755,7 +4747,7 @@
         <v>15.49</v>
       </c>
       <c r="E93" s="5">
-        <f>C93-D93</f>
+        <f t="shared" si="2"/>
         <v>13.430000000000001</v>
       </c>
       <c r="F93" s="5"/>
@@ -4777,7 +4769,7 @@
         <v>99.85</v>
       </c>
       <c r="E94" s="5">
-        <f>C94-D94</f>
+        <f t="shared" si="2"/>
         <v>-0.94999999999998863</v>
       </c>
       <c r="F94" s="5"/>
@@ -4799,7 +4791,7 @@
         <v>103.92</v>
       </c>
       <c r="E95" s="5">
-        <f>C95-D95</f>
+        <f t="shared" si="2"/>
         <v>0.23999999999999488</v>
       </c>
       <c r="F95" s="5"/>

--- a/DataSetsSelection.xlsx
+++ b/DataSetsSelection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabinoroselli/PycharmProjects/Decision_Tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF83C474-C276-1247-83A6-AF7A6FBED676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503B41C-B76C-A246-9049-7C0919F7D0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33060" yWindow="-21100" windowWidth="38400" windowHeight="19560" xr2:uid="{1EAD7E15-DE4E-0847-90D3-7614627CB1D0}"/>
+    <workbookView xWindow="33060" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{1EAD7E15-DE4E-0847-90D3-7614627CB1D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="241">
   <si>
     <t>acute-inflammations-nephr</t>
   </si>
@@ -632,6 +632,138 @@
   </si>
   <si>
     <t>LR - M5P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> blogger           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boxing            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mux6              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> corral            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> biomed            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ionosphere        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jEdit             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> schizo            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> colic             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> threeOf9          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R_data_frame      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> australian        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doa_bwin_balanced </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> blood-transf      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> autoUniv          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parity            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banknote          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gametes_Epistasis </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kr-vs-kp          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banana            </t>
+  </si>
+  <si>
+    <t>NrInstances</t>
+  </si>
+  <si>
+    <t>NrFeatures</t>
+  </si>
+  <si>
+    <t>Leafes(LMT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wisconsin           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pwLinear            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cpu                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yacht_hydrodynamics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAM_price           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> autoMpg             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vineyard            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boston_corrected    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> forest_fires        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meta                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arsenic-female-lung </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arsenic-male-lung   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> titanic_1           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stock               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bank-Note           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> balloon             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> debutanizer         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> analcatdata_supreme </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Long                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KDD                 </t>
+  </si>
+  <si>
+    <t>Leafes(M5P)</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF3BDA4-9979-7346-BA8D-DF100BA1885D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:F50"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49:N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,6 +1196,7 @@
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1891,7 +2024,7 @@
         <v>14980</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -1910,8 +2043,17 @@
       <c r="F49">
         <v>11055</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L49" t="s">
+        <v>217</v>
+      </c>
+      <c r="M49" t="s">
+        <v>218</v>
+      </c>
+      <c r="N49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -1930,8 +2072,20 @@
       <c r="F50">
         <v>1600</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>197</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+      <c r="M50">
+        <v>6</v>
+      </c>
+      <c r="N50">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>20</v>
       </c>
@@ -1950,8 +2104,20 @@
       <c r="F51" s="10">
         <v>20634</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>198</v>
+      </c>
+      <c r="L51">
+        <v>120</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>34</v>
       </c>
@@ -1970,8 +2136,20 @@
       <c r="F52" s="2">
         <v>708</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>199</v>
+      </c>
+      <c r="L52">
+        <v>128</v>
+      </c>
+      <c r="M52">
+        <v>7</v>
+      </c>
+      <c r="N52">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -1990,8 +2168,20 @@
       <c r="F53" s="2">
         <v>5300</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>200</v>
+      </c>
+      <c r="L53">
+        <v>160</v>
+      </c>
+      <c r="M53">
+        <v>7</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>40</v>
       </c>
@@ -2010,8 +2200,20 @@
       <c r="F54" s="2">
         <v>1600</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>201</v>
+      </c>
+      <c r="L54">
+        <v>209</v>
+      </c>
+      <c r="M54">
+        <v>9</v>
+      </c>
+      <c r="N54">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2030,8 +2232,20 @@
       <c r="F55">
         <v>15545</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K55" t="s">
+        <v>202</v>
+      </c>
+      <c r="L55">
+        <v>351</v>
+      </c>
+      <c r="M55">
+        <v>35</v>
+      </c>
+      <c r="N55">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>77</v>
       </c>
@@ -2050,8 +2264,20 @@
       <c r="F56" s="2">
         <v>1124</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>203</v>
+      </c>
+      <c r="L56">
+        <v>274</v>
+      </c>
+      <c r="M56">
+        <v>9</v>
+      </c>
+      <c r="N56">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>69</v>
       </c>
@@ -2070,8 +2296,20 @@
       <c r="F57" s="2">
         <v>569</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K57" t="s">
+        <v>204</v>
+      </c>
+      <c r="L57">
+        <v>340</v>
+      </c>
+      <c r="M57">
+        <v>15</v>
+      </c>
+      <c r="N57">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -2090,8 +2328,20 @@
       <c r="F58">
         <v>5000</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K58" t="s">
+        <v>205</v>
+      </c>
+      <c r="L58">
+        <v>368</v>
+      </c>
+      <c r="M58">
+        <v>27</v>
+      </c>
+      <c r="N58">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -2110,8 +2360,20 @@
       <c r="F59">
         <v>32561</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K59" t="s">
+        <v>206</v>
+      </c>
+      <c r="L59">
+        <v>512</v>
+      </c>
+      <c r="M59">
+        <v>10</v>
+      </c>
+      <c r="N59">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2130,8 +2392,20 @@
       <c r="F60">
         <v>3772</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>207</v>
+      </c>
+      <c r="L60">
+        <v>569</v>
+      </c>
+      <c r="M60">
+        <v>30</v>
+      </c>
+      <c r="N60">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>83</v>
       </c>
@@ -2150,8 +2424,20 @@
       <c r="F61" s="2">
         <v>340</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K61" t="s">
+        <v>208</v>
+      </c>
+      <c r="L61">
+        <v>690</v>
+      </c>
+      <c r="M61">
+        <v>15</v>
+      </c>
+      <c r="N61">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2170,8 +2456,20 @@
       <c r="F62">
         <v>973</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>209</v>
+      </c>
+      <c r="L62">
+        <v>708</v>
+      </c>
+      <c r="M62">
+        <v>14</v>
+      </c>
+      <c r="N62">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -2190,8 +2488,20 @@
       <c r="F63">
         <v>3772</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K63" t="s">
+        <v>210</v>
+      </c>
+      <c r="L63">
+        <v>748</v>
+      </c>
+      <c r="M63">
+        <v>5</v>
+      </c>
+      <c r="N63">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>52</v>
       </c>
@@ -2210,8 +2520,20 @@
       <c r="F64" s="2">
         <v>3196</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K64" t="s">
+        <v>211</v>
+      </c>
+      <c r="L64">
+        <v>1000</v>
+      </c>
+      <c r="M64">
+        <v>21</v>
+      </c>
+      <c r="N64">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -2230,8 +2552,20 @@
       <c r="F65" s="2">
         <v>512</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K65" t="s">
+        <v>212</v>
+      </c>
+      <c r="L65">
+        <v>1124</v>
+      </c>
+      <c r="M65">
+        <v>11</v>
+      </c>
+      <c r="N65">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>53</v>
       </c>
@@ -2250,8 +2584,20 @@
       <c r="F66" s="10">
         <v>11183</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K66" t="s">
+        <v>213</v>
+      </c>
+      <c r="L66">
+        <v>1372</v>
+      </c>
+      <c r="M66">
+        <v>15</v>
+      </c>
+      <c r="N66">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>58</v>
       </c>
@@ -2270,8 +2616,20 @@
       <c r="F67" s="2">
         <v>128</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K67" t="s">
+        <v>214</v>
+      </c>
+      <c r="L67">
+        <v>1600</v>
+      </c>
+      <c r="M67">
+        <v>21</v>
+      </c>
+      <c r="N67">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
@@ -2290,8 +2648,20 @@
       <c r="F68" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K68" t="s">
+        <v>215</v>
+      </c>
+      <c r="L68">
+        <v>3196</v>
+      </c>
+      <c r="M68">
+        <v>37</v>
+      </c>
+      <c r="N68">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>49</v>
       </c>
@@ -2310,8 +2680,20 @@
       <c r="F69" s="2">
         <v>251</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K69" t="s">
+        <v>216</v>
+      </c>
+      <c r="L69">
+        <v>5300</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>31</v>
       </c>
@@ -2331,7 +2713,7 @@
         <v>7129</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -2351,7 +2733,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -2371,7 +2753,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
@@ -2391,7 +2773,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>4</v>
       </c>
@@ -2411,7 +2793,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>27</v>
       </c>
@@ -2431,7 +2813,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -2451,7 +2833,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>25</v>
       </c>
@@ -2471,7 +2853,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>15</v>
       </c>
@@ -2491,7 +2873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>54</v>
       </c>
@@ -2511,7 +2893,7 @@
         <v>9466</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>71</v>
       </c>
@@ -2612,10 +2994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327CC89F-829E-A64C-9204-75EDA64CF78A}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48:P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2626,6 +3008,8 @@
     <col min="4" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3383,7 +3767,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -3405,7 +3789,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -3427,7 +3811,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>179</v>
       </c>
@@ -3451,7 +3835,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>172</v>
       </c>
@@ -3475,7 +3859,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -3497,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -3521,7 +3905,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>173</v>
       </c>
@@ -3545,7 +3929,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>177</v>
       </c>
@@ -3569,7 +3953,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -3591,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>136</v>
       </c>
@@ -3613,7 +3997,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>139</v>
       </c>
@@ -3635,7 +4019,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>137</v>
       </c>
@@ -3657,7 +4041,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -3679,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -3703,7 +4087,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -3725,7 +4109,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -3746,8 +4130,17 @@
       <c r="G48">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N48" t="s">
+        <v>217</v>
+      </c>
+      <c r="O48" t="s">
+        <v>218</v>
+      </c>
+      <c r="P48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>105</v>
       </c>
@@ -3768,8 +4161,20 @@
       <c r="G49" s="2">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M49" t="s">
+        <v>220</v>
+      </c>
+      <c r="N49">
+        <v>155</v>
+      </c>
+      <c r="O49">
+        <v>33</v>
+      </c>
+      <c r="P49">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>103</v>
       </c>
@@ -3790,8 +4195,20 @@
       <c r="G50" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M50" t="s">
+        <v>221</v>
+      </c>
+      <c r="N50">
+        <v>160</v>
+      </c>
+      <c r="O50">
+        <v>11</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -3812,8 +4229,20 @@
       <c r="G51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M51" t="s">
+        <v>222</v>
+      </c>
+      <c r="N51">
+        <v>167</v>
+      </c>
+      <c r="O51">
+        <v>7</v>
+      </c>
+      <c r="P51">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>158</v>
       </c>
@@ -3834,8 +4263,20 @@
       <c r="G52" s="2">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M52" t="s">
+        <v>223</v>
+      </c>
+      <c r="N52">
+        <v>246</v>
+      </c>
+      <c r="O52">
+        <v>7</v>
+      </c>
+      <c r="P52">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -3856,8 +4297,20 @@
       <c r="G53">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M53" t="s">
+        <v>224</v>
+      </c>
+      <c r="N53">
+        <v>266</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>146</v>
       </c>
@@ -3878,8 +4331,20 @@
       <c r="G54" s="2">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M54" t="s">
+        <v>225</v>
+      </c>
+      <c r="N54">
+        <v>318</v>
+      </c>
+      <c r="O54">
+        <v>8</v>
+      </c>
+      <c r="P54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -3902,8 +4367,20 @@
       <c r="G55">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M55" t="s">
+        <v>226</v>
+      </c>
+      <c r="N55">
+        <v>374</v>
+      </c>
+      <c r="O55">
+        <v>4</v>
+      </c>
+      <c r="P55">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -3926,8 +4403,20 @@
       <c r="G56">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M56" t="s">
+        <v>227</v>
+      </c>
+      <c r="N56">
+        <v>405</v>
+      </c>
+      <c r="O56">
+        <v>21</v>
+      </c>
+      <c r="P56">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>117</v>
       </c>
@@ -3948,8 +4437,20 @@
       <c r="G57" s="2">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M57" t="s">
+        <v>228</v>
+      </c>
+      <c r="N57">
+        <v>414</v>
+      </c>
+      <c r="O57">
+        <v>13</v>
+      </c>
+      <c r="P57">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>141</v>
       </c>
@@ -3970,8 +4471,20 @@
       <c r="G58">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M58" t="s">
+        <v>229</v>
+      </c>
+      <c r="N58">
+        <v>422</v>
+      </c>
+      <c r="O58">
+        <v>22</v>
+      </c>
+      <c r="P58">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>144</v>
       </c>
@@ -3992,8 +4505,20 @@
       <c r="G59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M59" t="s">
+        <v>230</v>
+      </c>
+      <c r="N59">
+        <v>447</v>
+      </c>
+      <c r="O59">
+        <v>5</v>
+      </c>
+      <c r="P59">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -4016,8 +4541,20 @@
       <c r="G60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M60" t="s">
+        <v>231</v>
+      </c>
+      <c r="N60">
+        <v>447</v>
+      </c>
+      <c r="O60">
+        <v>5</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -4040,8 +4577,20 @@
       <c r="G61">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M61" t="s">
+        <v>232</v>
+      </c>
+      <c r="N61">
+        <v>713</v>
+      </c>
+      <c r="O61">
+        <v>8</v>
+      </c>
+      <c r="P61">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>98</v>
       </c>
@@ -4064,8 +4613,20 @@
       <c r="G62" s="2">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M62" t="s">
+        <v>233</v>
+      </c>
+      <c r="N62">
+        <v>760</v>
+      </c>
+      <c r="O62">
+        <v>10</v>
+      </c>
+      <c r="P62">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>156</v>
       </c>
@@ -4088,8 +4649,20 @@
       <c r="G63">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M63" t="s">
+        <v>234</v>
+      </c>
+      <c r="N63">
+        <v>1098</v>
+      </c>
+      <c r="O63">
+        <v>5</v>
+      </c>
+      <c r="P63">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -4110,8 +4683,20 @@
       <c r="G64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M64" t="s">
+        <v>235</v>
+      </c>
+      <c r="N64">
+        <v>1601</v>
+      </c>
+      <c r="O64">
+        <v>3</v>
+      </c>
+      <c r="P64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>107</v>
       </c>
@@ -4132,8 +4717,20 @@
       <c r="G65" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M65" t="s">
+        <v>236</v>
+      </c>
+      <c r="N65">
+        <v>1915</v>
+      </c>
+      <c r="O65">
+        <v>8</v>
+      </c>
+      <c r="P65">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>180</v>
       </c>
@@ -4147,15 +4744,27 @@
         <v>49.98</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" ref="E66:E97" si="2">C66-D66</f>
+        <f t="shared" ref="E66:E95" si="2">C66-D66</f>
         <v>0</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M66" t="s">
+        <v>237</v>
+      </c>
+      <c r="N66">
+        <v>3242</v>
+      </c>
+      <c r="O66">
+        <v>8</v>
+      </c>
+      <c r="P66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>134</v>
       </c>
@@ -4176,8 +4785,20 @@
       <c r="G67">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M67" t="s">
+        <v>238</v>
+      </c>
+      <c r="N67">
+        <v>3582</v>
+      </c>
+      <c r="O67">
+        <v>20</v>
+      </c>
+      <c r="P67">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>164</v>
       </c>
@@ -4198,8 +4819,20 @@
       <c r="G68" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M68" t="s">
+        <v>239</v>
+      </c>
+      <c r="N68">
+        <v>4026</v>
+      </c>
+      <c r="O68">
+        <v>46</v>
+      </c>
+      <c r="P68">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>183</v>
       </c>
@@ -4223,7 +4856,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>188</v>
       </c>
@@ -4247,7 +4880,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>122</v>
       </c>
@@ -4269,7 +4902,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -4291,7 +4924,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>150</v>
       </c>
@@ -4313,7 +4946,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -4335,7 +4968,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>114</v>
       </c>
@@ -4357,7 +4990,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -4379,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -4401,7 +5034,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>131</v>
       </c>
@@ -4423,7 +5056,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -4445,7 +5078,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>161</v>
       </c>

--- a/DataSetsSelection.xlsx
+++ b/DataSetsSelection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabinoroselli/PycharmProjects/Decision_Tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503B41C-B76C-A246-9049-7C0919F7D0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9F03B6-8FB5-604B-AC49-5AAA0F3B752E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33060" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{1EAD7E15-DE4E-0847-90D3-7614627CB1D0}"/>
+    <workbookView xWindow="34100" yWindow="-21100" windowWidth="38400" windowHeight="19560" activeTab="1" xr2:uid="{1EAD7E15-DE4E-0847-90D3-7614627CB1D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="238">
   <si>
     <t>acute-inflammations-nephr</t>
   </si>
@@ -634,66 +634,6 @@
     <t>LR - M5P</t>
   </si>
   <si>
-    <t xml:space="preserve"> blogger           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> boxing            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mux6              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> corral            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> biomed            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ionosphere        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jEdit             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> schizo            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> colic             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> threeOf9          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R_data_frame      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> australian        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doa_bwin_balanced </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> blood-transf      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> autoUniv          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> parity            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banknote          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gametes_Epistasis </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kr-vs-kp          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banana            </t>
-  </si>
-  <si>
     <t>NrInstances</t>
   </si>
   <si>
@@ -703,74 +643,125 @@
     <t>Leafes(LMT)</t>
   </si>
   <si>
-    <t xml:space="preserve"> wisconsin           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pwLinear            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cpu                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yacht_hydrodynamics </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RAM_price           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> autoMpg             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vineyard            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> boston_corrected    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> forest_fires        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> meta                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> arsenic-female-lung </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> arsenic-male-lung   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> titanic_1           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stock               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bank-Note           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> balloon             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> debutanizer         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> analcatdata_supreme </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Long                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KDD                 </t>
-  </si>
-  <si>
     <t>Leafes(M5P)</t>
+  </si>
+  <si>
+    <t>Blogger</t>
+  </si>
+  <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>Mux6</t>
+  </si>
+  <si>
+    <t>Corral</t>
+  </si>
+  <si>
+    <t>Biomed</t>
+  </si>
+  <si>
+    <t>Ionosphere</t>
+  </si>
+  <si>
+    <t>jEdit</t>
+  </si>
+  <si>
+    <t>Schizo</t>
+  </si>
+  <si>
+    <t>Colic</t>
+  </si>
+  <si>
+    <t>ThreeOf9</t>
+  </si>
+  <si>
+    <t>RDataFrame</t>
+  </si>
+  <si>
+    <t>Australian</t>
+  </si>
+  <si>
+    <t>DoaBwin</t>
+  </si>
+  <si>
+    <t>BloodTransf</t>
+  </si>
+  <si>
+    <t>AutoUniv</t>
+  </si>
+  <si>
+    <t>Parity</t>
+  </si>
+  <si>
+    <t>Banknote</t>
+  </si>
+  <si>
+    <t>Gametes</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>PwLinear</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>YachtHydro</t>
+  </si>
+  <si>
+    <t>RAMprice</t>
+  </si>
+  <si>
+    <t>AutoMpg</t>
+  </si>
+  <si>
+    <t>Vineyard</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>ForestFires</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>FemaleLung</t>
+  </si>
+  <si>
+    <t>MaleLung</t>
+  </si>
+  <si>
+    <t>Titanic</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Baloon</t>
+  </si>
+  <si>
+    <t>Debutanizer</t>
+  </si>
+  <si>
+    <t>Analcatdata</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -783,6 +774,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -806,7 +804,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -814,11 +812,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -847,6 +865,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,7 +1211,7 @@
   <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49:N69"/>
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1746,7 +1772,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -1763,7 +1789,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1780,7 +1806,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1797,7 +1823,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1814,7 +1840,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1831,7 +1857,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -1848,7 +1874,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1865,7 +1891,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -1882,7 +1908,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1899,7 +1925,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1916,7 +1942,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -1933,7 +1959,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -1950,7 +1976,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -1967,7 +1993,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -1984,7 +2010,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -2004,7 +2030,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -2023,6 +2049,10 @@
       <c r="F48">
         <v>14980</v>
       </c>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -2043,14 +2073,15 @@
       <c r="F49">
         <v>11055</v>
       </c>
-      <c r="L49" t="s">
-        <v>217</v>
-      </c>
-      <c r="M49" t="s">
-        <v>218</v>
-      </c>
-      <c r="N49" t="s">
-        <v>219</v>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -2073,7 +2104,7 @@
         <v>1600</v>
       </c>
       <c r="K50" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L50">
         <v>100</v>
@@ -2105,7 +2136,7 @@
         <v>20634</v>
       </c>
       <c r="K51" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L51">
         <v>120</v>
@@ -2137,7 +2168,7 @@
         <v>708</v>
       </c>
       <c r="K52" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L52">
         <v>128</v>
@@ -2169,7 +2200,7 @@
         <v>5300</v>
       </c>
       <c r="K53" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L53">
         <v>160</v>
@@ -2201,7 +2232,7 @@
         <v>1600</v>
       </c>
       <c r="K54" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L54">
         <v>209</v>
@@ -2233,7 +2264,7 @@
         <v>15545</v>
       </c>
       <c r="K55" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L55">
         <v>351</v>
@@ -2265,7 +2296,7 @@
         <v>1124</v>
       </c>
       <c r="K56" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L56">
         <v>274</v>
@@ -2297,7 +2328,7 @@
         <v>569</v>
       </c>
       <c r="K57" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L57">
         <v>340</v>
@@ -2329,7 +2360,7 @@
         <v>5000</v>
       </c>
       <c r="K58" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L58">
         <v>368</v>
@@ -2361,7 +2392,7 @@
         <v>32561</v>
       </c>
       <c r="K59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L59">
         <v>512</v>
@@ -2393,7 +2424,7 @@
         <v>3772</v>
       </c>
       <c r="K60" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L60">
         <v>569</v>
@@ -2425,7 +2456,7 @@
         <v>340</v>
       </c>
       <c r="K61" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L61">
         <v>690</v>
@@ -2457,7 +2488,7 @@
         <v>973</v>
       </c>
       <c r="K62" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L62">
         <v>708</v>
@@ -2489,7 +2520,7 @@
         <v>3772</v>
       </c>
       <c r="K63" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L63">
         <v>748</v>
@@ -2521,7 +2552,7 @@
         <v>3196</v>
       </c>
       <c r="K64" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L64">
         <v>1000</v>
@@ -2553,7 +2584,7 @@
         <v>512</v>
       </c>
       <c r="K65" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L65">
         <v>1124</v>
@@ -2585,7 +2616,7 @@
         <v>11183</v>
       </c>
       <c r="K66" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L66">
         <v>1372</v>
@@ -2617,7 +2648,7 @@
         <v>128</v>
       </c>
       <c r="K67" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L67">
         <v>1600</v>
@@ -2649,7 +2680,7 @@
         <v>1000</v>
       </c>
       <c r="K68" t="s">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="L68">
         <v>3196</v>
@@ -2680,16 +2711,16 @@
       <c r="F69" s="2">
         <v>251</v>
       </c>
-      <c r="K69" t="s">
-        <v>216</v>
-      </c>
-      <c r="L69">
+      <c r="K69" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="L69" s="14">
         <v>5300</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="14">
         <v>3</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="14">
         <v>26.8</v>
       </c>
     </row>
@@ -2996,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327CC89F-829E-A64C-9204-75EDA64CF78A}">
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48:P68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49:M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4108,6 +4139,10 @@
       <c r="G47">
         <v>3.5</v>
       </c>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -4130,14 +4165,15 @@
       <c r="G48">
         <v>2.5</v>
       </c>
-      <c r="N48" t="s">
-        <v>217</v>
-      </c>
-      <c r="O48" t="s">
-        <v>218</v>
-      </c>
-      <c r="P48" t="s">
-        <v>240</v>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -4161,7 +4197,7 @@
       <c r="G49" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="16" t="s">
         <v>220</v>
       </c>
       <c r="N49">
@@ -4195,7 +4231,7 @@
       <c r="G50" s="2">
         <v>2</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="16" t="s">
         <v>221</v>
       </c>
       <c r="N50">
@@ -4229,7 +4265,7 @@
       <c r="G51">
         <v>2</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="16" t="s">
         <v>222</v>
       </c>
       <c r="N51">
@@ -4263,7 +4299,7 @@
       <c r="G52" s="2">
         <v>7.6</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="16" t="s">
         <v>223</v>
       </c>
       <c r="N52">
@@ -4297,7 +4333,7 @@
       <c r="G53">
         <v>1.3</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="16" t="s">
         <v>224</v>
       </c>
       <c r="N53">
@@ -4331,7 +4367,7 @@
       <c r="G54" s="2">
         <v>2.9</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="16" t="s">
         <v>225</v>
       </c>
       <c r="N54">
@@ -4367,7 +4403,7 @@
       <c r="G55">
         <v>9.5</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="16" t="s">
         <v>226</v>
       </c>
       <c r="N55">
@@ -4403,7 +4439,7 @@
       <c r="G56">
         <v>9</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="16" t="s">
         <v>227</v>
       </c>
       <c r="N56">
@@ -4437,7 +4473,7 @@
       <c r="G57" s="2">
         <v>4.3</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="16" t="s">
         <v>228</v>
       </c>
       <c r="N57">
@@ -4471,7 +4507,7 @@
       <c r="G58">
         <v>2.6</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="16" t="s">
         <v>229</v>
       </c>
       <c r="N58">
@@ -4505,7 +4541,7 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="16" t="s">
         <v>230</v>
       </c>
       <c r="N59">
@@ -4541,7 +4577,7 @@
       <c r="G60">
         <v>4</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="16" t="s">
         <v>231</v>
       </c>
       <c r="N60">
@@ -4577,7 +4613,7 @@
       <c r="G61">
         <v>22.6</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="16" t="s">
         <v>232</v>
       </c>
       <c r="N61">
@@ -4613,7 +4649,7 @@
       <c r="G62" s="2">
         <v>20.8</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="16" t="s">
         <v>233</v>
       </c>
       <c r="N62">
@@ -4649,8 +4685,8 @@
       <c r="G63">
         <v>4.5</v>
       </c>
-      <c r="M63" t="s">
-        <v>234</v>
+      <c r="M63" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="N63">
         <v>1098</v>
@@ -4683,8 +4719,8 @@
       <c r="G64">
         <v>1</v>
       </c>
-      <c r="M64" t="s">
-        <v>235</v>
+      <c r="M64" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="N64">
         <v>1601</v>
@@ -4717,8 +4753,8 @@
       <c r="G65" s="2">
         <v>4</v>
       </c>
-      <c r="M65" t="s">
-        <v>236</v>
+      <c r="M65" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="N65">
         <v>1915</v>
@@ -4751,8 +4787,8 @@
       <c r="G66">
         <v>1</v>
       </c>
-      <c r="M66" t="s">
-        <v>237</v>
+      <c r="M66" s="16" t="s">
+        <v>236</v>
       </c>
       <c r="N66">
         <v>3242</v>
@@ -4785,8 +4821,8 @@
       <c r="G67">
         <v>1.9</v>
       </c>
-      <c r="M67" t="s">
-        <v>238</v>
+      <c r="M67" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="N67">
         <v>3582</v>
@@ -4819,16 +4855,16 @@
       <c r="G68" s="2">
         <v>3</v>
       </c>
-      <c r="M68" t="s">
-        <v>239</v>
-      </c>
-      <c r="N68">
+      <c r="M68" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="N68" s="14">
         <v>4026</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="14">
         <v>46</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="14">
         <v>46.6</v>
       </c>
     </row>
